--- a/output/xlsx/UC001 - Calcular Desconto de Produto--Complete-.xlsx
+++ b/output/xlsx/UC001 - Calcular Desconto de Produto--Complete-.xlsx
@@ -125,7 +125,7 @@
     <t>Usuário do Sistema visualiza formulário de informações complementares</t>
   </si>
   <si>
-    <t>SYSTEM apresenta campos: Tipo de Cliente (padrão 'A') e Quantidade (vazio)</t>
+    <t>SYSTEM apresenta campos: Tipo de Cliente e Quantidade</t>
   </si>
   <si>
     <t>Usuário do Sistema altera para tipo de cliente C</t>

--- a/output/xlsx/UC001 - Calcular Desconto de Produto--Complete-.xlsx
+++ b/output/xlsx/UC001 - Calcular Desconto de Produto--Complete-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="82">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -137,6 +137,12 @@
     <t>Usuário do Sistema informa a quantidade de produtos menor ou igual a zero</t>
   </si>
   <si>
+    <t>SYSTEM registra a quantidade informada</t>
+  </si>
+  <si>
+    <t>Usuário do Sistema clica no botão 'Calcular Desconto!'</t>
+  </si>
+  <si>
     <t>SYSTEM exibe mensagem 'A quantidade informada deve ser maior ou igual a 01 (um)!' (MSG002)</t>
   </si>
   <si>
@@ -149,9 +155,6 @@
     <t>SYSTEM aplica fator de desconto para quantidade &gt;= 1000: Cliente A (1,00), B (0,95), C (0,90)</t>
   </si>
   <si>
-    <t>Usuário do Sistema clica no botão 'Calcular Desconto!'</t>
-  </si>
-  <si>
     <t>SYSTEM processa o cálculo do desconto baseado no tipo de cliente e quantidade</t>
   </si>
   <si>
@@ -201,9 +204,6 @@
   </si>
   <si>
     <t>Usuário do Sistema informa a quantidade de produtos</t>
-  </si>
-  <si>
-    <t>SYSTEM registra a quantidade informada</t>
   </si>
   <si>
     <t>TC6</t>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -769,120 +769,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18"/>
+    <row r="18">
+      <c r="A18" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B18" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="19"/>
-    <row r="20">
-      <c r="A20" t="s" s="4">
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B20" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s" s="4">
+      <c r="B21" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D20" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s" s="4">
+      <c r="D21" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F20" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="9">
+      <c r="F21" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B21" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s" s="9">
+      <c r="B22" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F21" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="8">
+      <c r="F22" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B22" t="s" s="8">
+      <c r="B23" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C22" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="5">
+      <c r="C23" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B23" t="s" s="5">
+      <c r="B24" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C23" t="s" s="5">
+      <c r="C24" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D23" t="s" s="5">
+      <c r="D24" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E23" t="s" s="5">
+      <c r="E24" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F23" t="s" s="5">
+      <c r="F24" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B24" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B25" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D25" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s" s="6">
         <v>2</v>
@@ -893,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B26" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D26" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s" s="6">
         <v>2</v>
@@ -913,16 +913,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B27" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D27" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s" s="6">
         <v>2</v>
@@ -933,16 +933,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B28" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D28" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s" s="6">
         <v>2</v>
@@ -953,16 +953,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D29" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s" s="6">
         <v>2</v>
@@ -973,16 +973,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B30" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D30" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s" s="6">
         <v>2</v>
@@ -993,16 +993,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="10">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D31" t="s" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s" s="6">
         <v>2</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="10">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B32" t="s" s="7">
         <v>45</v>
@@ -1033,16 +1033,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="10">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B33" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s" s="7">
         <v>47</v>
-      </c>
-      <c r="C33" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s" s="7">
-        <v>48</v>
       </c>
       <c r="E33" t="s" s="6">
         <v>2</v>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="10">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B34" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s" s="7">
         <v>49</v>
-      </c>
-      <c r="C34" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s" s="7">
-        <v>50</v>
       </c>
       <c r="E34" t="s" s="6">
         <v>2</v>
@@ -1073,158 +1073,158 @@
     </row>
     <row r="35">
       <c r="A35" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B35" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B35" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s" s="7">
+      <c r="B36" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E35" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="8">
+      <c r="C36" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="E36" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37"/>
+      <c r="B37" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="38"/>
-    <row r="39">
-      <c r="A39" t="s" s="4">
+    <row r="39"/>
+    <row r="40">
+      <c r="A40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B39" t="s" s="4">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s" s="4">
+      <c r="B40" t="s" s="4">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D39" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s" s="4">
+      <c r="D40" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F39" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="9">
+      <c r="F40" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B40" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s" s="9">
+      <c r="B41" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F40" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="8">
+      <c r="F41" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B41" t="s" s="8">
+      <c r="B42" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C41" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="5">
+      <c r="C42" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B43" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C42" t="s" s="5">
+      <c r="C43" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D42" t="s" s="5">
+      <c r="D43" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E42" t="s" s="5">
+      <c r="E43" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F42" t="s" s="5">
+      <c r="F43" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C43" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B44" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D44" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s" s="6">
         <v>2</v>
@@ -1235,16 +1235,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B45" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D45" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s" s="6">
         <v>2</v>
@@ -1255,16 +1255,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B46" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D46" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s" s="6">
         <v>2</v>
@@ -1275,16 +1275,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B47" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D47" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s" s="6">
         <v>2</v>
@@ -1295,16 +1295,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B48" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D48" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s" s="6">
         <v>2</v>
@@ -1315,16 +1315,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D49" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s" s="6">
         <v>2</v>
@@ -1335,16 +1335,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="10">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D50" t="s" s="7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s" s="6">
         <v>2</v>
@@ -1355,16 +1355,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="10">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1375,16 +1375,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="10">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B52" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s" s="7">
         <v>47</v>
-      </c>
-      <c r="C52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s" s="7">
-        <v>48</v>
       </c>
       <c r="E52" t="s" s="6">
         <v>2</v>
@@ -1395,16 +1395,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n" s="10">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B53" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s" s="7">
         <v>49</v>
-      </c>
-      <c r="C53" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s" s="7">
-        <v>50</v>
       </c>
       <c r="E53" t="s" s="6">
         <v>2</v>
@@ -1415,158 +1415,158 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B54" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B54" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s" s="7">
+      <c r="B55" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E54" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="8">
+      <c r="C55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B55" t="s" s="8">
+      <c r="E55" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C55" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56"/>
+      <c r="B56" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="57"/>
-    <row r="58">
-      <c r="A58" t="s" s="4">
+    <row r="58"/>
+    <row r="59">
+      <c r="A59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B58" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="C58" t="s" s="4">
+      <c r="B59" t="s" s="4">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D58" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s" s="4">
+      <c r="D59" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F58" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="9">
+      <c r="F59" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B59" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s" s="9">
+      <c r="B60" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F59" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="8">
+      <c r="F60" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B60" t="s" s="8">
+      <c r="B61" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C60" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="5">
+      <c r="C61" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B61" t="s" s="5">
+      <c r="B62" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C61" t="s" s="5">
+      <c r="C62" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D61" t="s" s="5">
+      <c r="D62" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E61" t="s" s="5">
+      <c r="E62" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F61" t="s" s="5">
+      <c r="F62" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B62" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E62" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F62" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B63" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D63" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s" s="6">
         <v>2</v>
@@ -1577,16 +1577,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B64" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D64" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s" s="6">
         <v>2</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1617,16 +1617,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s" s="6">
         <v>2</v>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B67" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D67" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s" s="6">
         <v>2</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B68" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D68" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s" s="6">
         <v>2</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n" s="10">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B69" t="s" s="7">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D69" t="s" s="7">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s" s="6">
         <v>2</v>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n" s="10">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="10">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B71" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="7">
         <v>47</v>
-      </c>
-      <c r="C71" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="7">
-        <v>48</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n" s="10">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B72" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
         <v>49</v>
-      </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
-        <v>50</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>2</v>
@@ -1757,158 +1757,158 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B73" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
+      <c r="B74" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="8">
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B74" t="s" s="8">
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75"/>
+      <c r="B75" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="76"/>
-    <row r="77">
-      <c r="A77" t="s" s="4">
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B77" t="s" s="4">
-        <v>61</v>
-      </c>
-      <c r="C77" t="s" s="4">
+      <c r="B78" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="C78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D77" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="4">
+      <c r="D78" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F77" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="9">
+      <c r="F78" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="9">
+      <c r="B79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F78" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="8">
+      <c r="F79" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B79" t="s" s="8">
+      <c r="B80" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="5">
+      <c r="C80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B80" t="s" s="5">
+      <c r="B81" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C80" t="s" s="5">
+      <c r="C81" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D80" t="s" s="5">
+      <c r="D81" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E80" t="s" s="5">
+      <c r="E81" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F80" t="s" s="5">
+      <c r="F81" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B81" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1919,16 +1919,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1939,16 +1939,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D84" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E84" t="s" s="6">
         <v>2</v>
@@ -1959,16 +1959,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>2</v>
@@ -1979,16 +1979,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1999,16 +1999,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -2019,16 +2019,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="10">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D88" t="s" s="7">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E88" t="s" s="6">
         <v>2</v>
@@ -2039,16 +2039,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n" s="10">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B89" t="s" s="7">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C89" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D89" t="s" s="7">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E89" t="s" s="6">
         <v>2</v>
@@ -2059,16 +2059,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="10">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B90" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s" s="7">
         <v>47</v>
-      </c>
-      <c r="C90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s" s="7">
-        <v>48</v>
       </c>
       <c r="E90" t="s" s="6">
         <v>2</v>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n" s="10">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B91" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s" s="7">
         <v>49</v>
-      </c>
-      <c r="C91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s" s="7">
-        <v>50</v>
       </c>
       <c r="E91" t="s" s="6">
         <v>2</v>
@@ -2099,158 +2099,158 @@
     </row>
     <row r="92">
       <c r="A92" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B92" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B92" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="7">
+      <c r="B93" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="8">
+      <c r="C93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B93" t="s" s="8">
+      <c r="E93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94"/>
+      <c r="B94" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C94" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="95"/>
-    <row r="96">
-      <c r="A96" t="s" s="4">
+    <row r="96"/>
+    <row r="97">
+      <c r="A97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B97" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D96" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E96" t="s" s="4">
+      <c r="D97" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F96" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="9">
+      <c r="F97" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B97" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D97" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E97" t="s" s="9">
+      <c r="B98" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F97" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="8">
+      <c r="F98" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B98" t="s" s="8">
+      <c r="B99" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C98" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F98" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="5">
+      <c r="C99" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B99" t="s" s="5">
+      <c r="B100" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C99" t="s" s="5">
+      <c r="C100" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D99" t="s" s="5">
+      <c r="D100" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E99" t="s" s="5">
+      <c r="E100" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F99" t="s" s="5">
+      <c r="F100" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B100" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C100" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D100" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E100" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F100" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n" s="10">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B101" t="s" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D101" t="s" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s" s="6">
         <v>2</v>
@@ -2261,16 +2261,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n" s="10">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B102" t="s" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D102" t="s" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E102" t="s" s="6">
         <v>2</v>
@@ -2281,16 +2281,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n" s="10">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B103" t="s" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D103" t="s" s="7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s" s="6">
         <v>2</v>
@@ -2301,16 +2301,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n" s="10">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B104" t="s" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D104" t="s" s="7">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E104" t="s" s="6">
         <v>2</v>
@@ -2321,16 +2321,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n" s="10">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B105" t="s" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D105" t="s" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E105" t="s" s="6">
         <v>2</v>
@@ -2341,16 +2341,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n" s="10">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B106" t="s" s="7">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D106" t="s" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E106" t="s" s="6">
         <v>2</v>
@@ -2361,158 +2361,158 @@
     </row>
     <row r="107">
       <c r="A107" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B107" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E107" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B107" t="s" s="7">
+      <c r="B108" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D107" t="s" s="7">
+      <c r="C108" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="E107" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F107" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="E108" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B109" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C109" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E109" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112">
+      <c r="A112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B112" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D110" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s" s="4">
+      <c r="D112" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F110" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="9">
+      <c r="F112" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B111" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C111" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D111" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s" s="9">
+      <c r="B113" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F111" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="8">
+      <c r="F113" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B112" t="s" s="8">
+      <c r="B114" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C112" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E112" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F112" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="5">
+      <c r="C114" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B113" t="s" s="5">
+      <c r="B115" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C113" t="s" s="5">
+      <c r="C115" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D113" t="s" s="5">
+      <c r="D115" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E113" t="s" s="5">
+      <c r="E115" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F113" t="s" s="5">
+      <c r="F115" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B114" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C114" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D114" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E114" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F114" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B115" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E115" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F115" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B116" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C116" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D116" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E116" t="s" s="6">
         <v>2</v>
@@ -2523,16 +2523,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B117" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D117" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E117" t="s" s="6">
         <v>2</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B118" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C118" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D118" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E118" t="s" s="6">
         <v>2</v>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B119" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D119" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E119" t="s" s="6">
         <v>2</v>
@@ -2583,16 +2583,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B120" t="s" s="7">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D120" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E120" t="s" s="6">
         <v>2</v>
@@ -2603,16 +2603,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n" s="10">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B121" t="s" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C121" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D121" t="s" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E121" t="s" s="6">
         <v>2</v>
@@ -2623,16 +2623,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n" s="10">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B122" t="s" s="7">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D122" t="s" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E122" t="s" s="6">
         <v>2</v>
@@ -2643,16 +2643,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n" s="10">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B123" t="s" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D123" t="s" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E123" t="s" s="6">
         <v>2</v>
@@ -2663,16 +2663,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n" s="10">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B124" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C124" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D124" t="s" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E124" t="s" s="6">
         <v>2</v>
@@ -2683,178 +2683,178 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B125" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C125" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E125" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B126" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E126" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B125" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C125" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D125" t="s" s="7">
+      <c r="B127" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E125" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F125" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="8">
+      <c r="C127" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B126" t="s" s="8">
+      <c r="E127" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F126" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129">
-      <c r="A129" t="s" s="4">
+      <c r="B128" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131">
+      <c r="A131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B131" t="s" s="4">
         <v>67</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D129" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E129" t="s" s="4">
+      <c r="D131" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F129" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="9">
+      <c r="F131" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B130" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C130" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E130" t="s" s="9">
+      <c r="B132" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F130" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="8">
+      <c r="F132" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B131" t="s" s="8">
+      <c r="B133" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C131" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E131" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F131" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="5">
+      <c r="C133" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B132" t="s" s="5">
+      <c r="B134" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C132" t="s" s="5">
+      <c r="C134" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D132" t="s" s="5">
+      <c r="D134" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E132" t="s" s="5">
+      <c r="E134" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F132" t="s" s="5">
+      <c r="F134" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B133" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C133" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D133" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E133" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F133" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B134" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C134" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D134" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E134" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F134" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B135" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C135" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D135" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E135" t="s" s="6">
         <v>2</v>
@@ -2865,16 +2865,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B136" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D136" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E136" t="s" s="6">
         <v>2</v>
@@ -2885,16 +2885,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B137" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C137" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D137" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E137" t="s" s="6">
         <v>2</v>
@@ -2905,16 +2905,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B138" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C138" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D138" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E138" t="s" s="6">
         <v>2</v>
@@ -2925,16 +2925,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B139" t="s" s="7">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D139" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E139" t="s" s="6">
         <v>2</v>
@@ -2945,16 +2945,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n" s="10">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B140" t="s" s="7">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C140" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D140" t="s" s="7">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E140" t="s" s="6">
         <v>2</v>
@@ -2965,16 +2965,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n" s="10">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B141" t="s" s="7">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C141" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D141" t="s" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E141" t="s" s="6">
         <v>2</v>
@@ -2985,16 +2985,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n" s="10">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B142" t="s" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D142" t="s" s="7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E142" t="s" s="6">
         <v>2</v>
@@ -3005,16 +3005,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n" s="10">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B143" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D143" t="s" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E143" t="s" s="6">
         <v>2</v>
@@ -3025,178 +3025,178 @@
     </row>
     <row r="144">
       <c r="A144" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B144" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C144" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E144" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B145" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C145" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E145" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B144" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C144" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D144" t="s" s="7">
+      <c r="B146" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E144" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F144" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="8">
+      <c r="C146" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B145" t="s" s="8">
+      <c r="E146" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C145" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D145" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E145" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F145" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148">
-      <c r="A148" t="s" s="4">
+      <c r="B147" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C147" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150">
+      <c r="A150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B148" t="s" s="4">
+      <c r="B150" t="s" s="4">
         <v>68</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D148" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E148" t="s" s="4">
+      <c r="D150" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F148" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="9">
+      <c r="F150" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B149" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D149" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E149" t="s" s="9">
+      <c r="B151" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F149" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="8">
+      <c r="F151" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B150" t="s" s="8">
+      <c r="B152" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C150" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D150" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E150" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F150" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s" s="5">
+      <c r="C152" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B151" t="s" s="5">
+      <c r="B153" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C151" t="s" s="5">
+      <c r="C153" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D151" t="s" s="5">
+      <c r="D153" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E151" t="s" s="5">
+      <c r="E153" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F151" t="s" s="5">
+      <c r="F153" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B152" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C152" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D152" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E152" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F152" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B153" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C153" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D153" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E153" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F153" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B154" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C154" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D154" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E154" t="s" s="6">
         <v>2</v>
@@ -3207,16 +3207,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B155" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C155" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D155" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E155" t="s" s="6">
         <v>2</v>
@@ -3227,16 +3227,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B156" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C156" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D156" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E156" t="s" s="6">
         <v>2</v>
@@ -3247,16 +3247,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B157" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C157" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D157" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E157" t="s" s="6">
         <v>2</v>
@@ -3267,16 +3267,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B158" t="s" s="7">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C158" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D158" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E158" t="s" s="6">
         <v>2</v>
@@ -3287,16 +3287,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n" s="10">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B159" t="s" s="7">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D159" t="s" s="7">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E159" t="s" s="6">
         <v>2</v>
@@ -3307,16 +3307,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n" s="10">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B160" t="s" s="7">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C160" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D160" t="s" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E160" t="s" s="6">
         <v>2</v>
@@ -3327,16 +3327,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n" s="10">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B161" t="s" s="7">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D161" t="s" s="7">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E161" t="s" s="6">
         <v>2</v>
@@ -3347,16 +3347,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n" s="10">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B162" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C162" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D162" t="s" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E162" t="s" s="6">
         <v>2</v>
@@ -3367,178 +3367,178 @@
     </row>
     <row r="163">
       <c r="A163" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B163" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C163" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E163" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B164" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C164" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E164" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B163" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C163" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D163" t="s" s="7">
+      <c r="B165" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E163" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F163" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="8">
+      <c r="C165" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B164" t="s" s="8">
+      <c r="E165" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C164" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D164" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E164" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F164" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167">
-      <c r="A167" t="s" s="4">
+      <c r="B166" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C166" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169">
+      <c r="A169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B167" t="s" s="4">
+      <c r="B169" t="s" s="4">
         <v>69</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D167" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E167" t="s" s="4">
+      <c r="D169" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F167" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s" s="9">
+      <c r="F169" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B168" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C168" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D168" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E168" t="s" s="9">
+      <c r="B170" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F168" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s" s="8">
+      <c r="F170" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B169" t="s" s="8">
+      <c r="B171" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C169" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D169" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E169" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F169" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s" s="5">
+      <c r="C171" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B170" t="s" s="5">
+      <c r="B172" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C170" t="s" s="5">
+      <c r="C172" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D170" t="s" s="5">
+      <c r="D172" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E170" t="s" s="5">
+      <c r="E172" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F170" t="s" s="5">
+      <c r="F172" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B171" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C171" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D171" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E171" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F171" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B172" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C172" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D172" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E172" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F172" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B173" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C173" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D173" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E173" t="s" s="6">
         <v>2</v>
@@ -3549,16 +3549,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B174" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C174" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D174" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E174" t="s" s="6">
         <v>2</v>
@@ -3569,16 +3569,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B175" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C175" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D175" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E175" t="s" s="6">
         <v>2</v>
@@ -3589,16 +3589,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B176" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C176" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D176" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E176" t="s" s="6">
         <v>2</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B177" t="s" s="7">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C177" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D177" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E177" t="s" s="6">
         <v>2</v>
@@ -3629,16 +3629,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n" s="10">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B178" t="s" s="7">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C178" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D178" t="s" s="7">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E178" t="s" s="6">
         <v>2</v>
@@ -3649,16 +3649,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n" s="10">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B179" t="s" s="7">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C179" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D179" t="s" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E179" t="s" s="6">
         <v>2</v>
@@ -3669,16 +3669,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n" s="10">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B180" t="s" s="7">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D180" t="s" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E180" t="s" s="6">
         <v>2</v>
@@ -3689,16 +3689,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n" s="10">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="B181" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C181" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D181" t="s" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E181" t="s" s="6">
         <v>2</v>
@@ -3709,178 +3709,178 @@
     </row>
     <row r="182">
       <c r="A182" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B182" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C182" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E182" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F182" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B183" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C183" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E183" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B182" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C182" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D182" t="s" s="7">
+      <c r="B184" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E182" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F182" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s" s="8">
+      <c r="C184" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B183" t="s" s="8">
+      <c r="E184" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C183" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D183" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E183" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F183" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186">
-      <c r="A186" t="s" s="4">
+      <c r="B185" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C185" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F185" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188">
+      <c r="A188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B188" t="s" s="4">
         <v>70</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D186" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E186" t="s" s="4">
+      <c r="D188" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F186" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="9">
+      <c r="F188" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B187" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C187" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D187" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E187" t="s" s="9">
+      <c r="B189" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C189" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E189" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F187" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="8">
+      <c r="F189" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B188" t="s" s="8">
+      <c r="B190" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C188" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D188" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E188" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F188" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="5">
+      <c r="C190" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E190" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F190" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B189" t="s" s="5">
+      <c r="B191" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C189" t="s" s="5">
+      <c r="C191" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D189" t="s" s="5">
+      <c r="D191" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E189" t="s" s="5">
+      <c r="E191" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F189" t="s" s="5">
+      <c r="F191" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B190" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C190" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D190" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E190" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F190" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B191" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C191" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D191" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E191" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F191" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n" s="10">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B192" t="s" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C192" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D192" t="s" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E192" t="s" s="6">
         <v>2</v>
@@ -3891,16 +3891,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B193" t="s" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C193" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D193" t="s" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E193" t="s" s="6">
         <v>2</v>
@@ -3911,16 +3911,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n" s="10">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B194" t="s" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C194" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D194" t="s" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E194" t="s" s="6">
         <v>2</v>
@@ -3931,16 +3931,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n" s="10">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="B195" t="s" s="7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C195" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D195" t="s" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E195" t="s" s="6">
         <v>2</v>
@@ -3951,16 +3951,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n" s="10">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B196" t="s" s="7">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C196" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D196" t="s" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E196" t="s" s="6">
         <v>2</v>
@@ -3971,178 +3971,178 @@
     </row>
     <row r="197">
       <c r="A197" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B197" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C197" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E197" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B198" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="C198" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E198" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F198" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B197" t="s" s="7">
+      <c r="B199" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C197" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D197" t="s" s="7">
+      <c r="C199" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="E197" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F197" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198"/>
-    <row r="199"/>
+      <c r="E199" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="200">
-      <c r="A200" t="s" s="4">
+      <c r="A200" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B200" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C200" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E200" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203">
+      <c r="A203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B200" t="s" s="4">
+      <c r="B203" t="s" s="4">
         <v>72</v>
       </c>
-      <c r="C200" t="s" s="4">
+      <c r="C203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D200" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E200" t="s" s="4">
+      <c r="D203" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F200" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s" s="9">
+      <c r="F203" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B201" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C201" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D201" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E201" t="s" s="9">
+      <c r="B204" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E204" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F201" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s" s="8">
+      <c r="F204" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B202" t="s" s="8">
+      <c r="B205" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C202" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D202" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E202" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F202" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s" s="5">
+      <c r="C205" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E205" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F205" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B203" t="s" s="5">
+      <c r="B206" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C203" t="s" s="5">
+      <c r="C206" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D203" t="s" s="5">
+      <c r="D206" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E203" t="s" s="5">
+      <c r="E206" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F203" t="s" s="5">
+      <c r="F206" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B204" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C204" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D204" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E204" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F204" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B205" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C205" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D205" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E205" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F205" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B206" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C206" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D206" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E206" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F206" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B207" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C207" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D207" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E207" t="s" s="6">
         <v>2</v>
@@ -4153,16 +4153,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B208" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C208" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D208" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E208" t="s" s="6">
         <v>2</v>
@@ -4173,16 +4173,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B209" t="s" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C209" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D209" t="s" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E209" t="s" s="6">
         <v>2</v>
@@ -4193,16 +4193,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B210" t="s" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C210" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D210" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E210" t="s" s="6">
         <v>2</v>
@@ -4213,16 +4213,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n" s="10">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B211" t="s" s="7">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C211" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D211" t="s" s="7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E211" t="s" s="6">
         <v>2</v>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n" s="10">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B212" t="s" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C212" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D212" t="s" s="7">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E212" t="s" s="6">
         <v>2</v>
@@ -4253,16 +4253,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n" s="10">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B213" t="s" s="7">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C213" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D213" t="s" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E213" t="s" s="6">
         <v>2</v>
@@ -4273,16 +4273,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n" s="10">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B214" t="s" s="7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C214" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D214" t="s" s="7">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E214" t="s" s="6">
         <v>2</v>
@@ -4293,198 +4293,198 @@
     </row>
     <row r="215">
       <c r="A215" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B215" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C215" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E215" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F215" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B216" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C216" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E216" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F216" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B217" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C217" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E217" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F217" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B215" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C215" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D215" t="s" s="7">
+      <c r="B218" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E215" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F215" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s" s="8">
+      <c r="C218" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B216" t="s" s="8">
+      <c r="E218" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F218" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C216" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D216" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E216" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F216" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="B219" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C219" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E219" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F219" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222">
+      <c r="A222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B222" t="s" s="4">
         <v>73</v>
       </c>
-      <c r="C219" t="s" s="4">
+      <c r="C222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D219" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E219" t="s" s="4">
+      <c r="D222" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F219" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s" s="9">
+      <c r="F222" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B220" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C220" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D220" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E220" t="s" s="9">
+      <c r="B223" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C223" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E223" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F220" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s" s="8">
+      <c r="F223" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B221" t="s" s="8">
+      <c r="B224" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C221" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D221" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E221" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F221" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s" s="5">
+      <c r="C224" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E224" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F224" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B222" t="s" s="5">
+      <c r="B225" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C222" t="s" s="5">
+      <c r="C225" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D222" t="s" s="5">
+      <c r="D225" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E222" t="s" s="5">
+      <c r="E225" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F222" t="s" s="5">
+      <c r="F225" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B223" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C223" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D223" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E223" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F223" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B224" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C224" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D224" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E224" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F224" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B225" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C225" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D225" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E225" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F225" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B226" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C226" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D226" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E226" t="s" s="6">
         <v>2</v>
@@ -4495,16 +4495,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B227" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C227" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D227" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E227" t="s" s="6">
         <v>2</v>
@@ -4515,16 +4515,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B228" t="s" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C228" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D228" t="s" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E228" t="s" s="6">
         <v>2</v>
@@ -4535,16 +4535,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B229" t="s" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C229" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D229" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E229" t="s" s="6">
         <v>2</v>
@@ -4555,16 +4555,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n" s="10">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B230" t="s" s="7">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C230" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D230" t="s" s="7">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E230" t="s" s="6">
         <v>2</v>
@@ -4575,16 +4575,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n" s="10">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B231" t="s" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C231" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D231" t="s" s="7">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E231" t="s" s="6">
         <v>2</v>
@@ -4595,16 +4595,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n" s="10">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B232" t="s" s="7">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C232" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D232" t="s" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E232" t="s" s="6">
         <v>2</v>
@@ -4615,16 +4615,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n" s="10">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B233" t="s" s="7">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C233" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D233" t="s" s="7">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E233" t="s" s="6">
         <v>2</v>
@@ -4635,198 +4635,198 @@
     </row>
     <row r="234">
       <c r="A234" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B234" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C234" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E234" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F234" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B235" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C235" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E235" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F235" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B236" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C236" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E236" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F236" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B234" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C234" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D234" t="s" s="7">
+      <c r="B237" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E234" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F234" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s" s="8">
+      <c r="C237" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B235" t="s" s="8">
+      <c r="E237" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F237" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C235" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D235" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E235" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F235" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238">
-      <c r="A238" t="s" s="4">
+      <c r="B238" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C238" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F238" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241">
+      <c r="A241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B238" t="s" s="4">
+      <c r="B241" t="s" s="4">
         <v>74</v>
       </c>
-      <c r="C238" t="s" s="4">
+      <c r="C241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D238" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E238" t="s" s="4">
+      <c r="D241" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F238" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s" s="9">
+      <c r="F241" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B239" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C239" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D239" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E239" t="s" s="9">
+      <c r="B242" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C242" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E242" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F239" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s" s="8">
+      <c r="F242" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B240" t="s" s="8">
+      <c r="B243" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C240" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D240" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E240" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F240" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s" s="5">
+      <c r="C243" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D243" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E243" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F243" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B241" t="s" s="5">
+      <c r="B244" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C241" t="s" s="5">
+      <c r="C244" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D241" t="s" s="5">
+      <c r="D244" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E241" t="s" s="5">
+      <c r="E244" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F241" t="s" s="5">
+      <c r="F244" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B242" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C242" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D242" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E242" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F242" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B243" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C243" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D243" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E243" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F243" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B244" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C244" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D244" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E244" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F244" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B245" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C245" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D245" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E245" t="s" s="6">
         <v>2</v>
@@ -4837,16 +4837,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B246" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C246" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D246" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E246" t="s" s="6">
         <v>2</v>
@@ -4857,16 +4857,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B247" t="s" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C247" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D247" t="s" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E247" t="s" s="6">
         <v>2</v>
@@ -4877,16 +4877,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B248" t="s" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C248" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D248" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E248" t="s" s="6">
         <v>2</v>
@@ -4897,16 +4897,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n" s="10">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B249" t="s" s="7">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C249" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D249" t="s" s="7">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E249" t="s" s="6">
         <v>2</v>
@@ -4917,16 +4917,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n" s="10">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B250" t="s" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C250" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D250" t="s" s="7">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E250" t="s" s="6">
         <v>2</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n" s="10">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B251" t="s" s="7">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C251" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D251" t="s" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E251" t="s" s="6">
         <v>2</v>
@@ -4957,16 +4957,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n" s="10">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B252" t="s" s="7">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C252" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D252" t="s" s="7">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E252" t="s" s="6">
         <v>2</v>
@@ -4977,198 +4977,198 @@
     </row>
     <row r="253">
       <c r="A253" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B253" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C253" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E253" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F253" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B254" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C254" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E254" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F254" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B255" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C255" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D255" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E255" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F255" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B253" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C253" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D253" t="s" s="7">
+      <c r="B256" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E253" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F253" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s" s="8">
+      <c r="C256" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B254" t="s" s="8">
+      <c r="E256" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F256" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C254" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D254" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E254" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F254" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257">
-      <c r="A257" t="s" s="4">
+      <c r="B257" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C257" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F257" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260">
+      <c r="A260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B257" t="s" s="4">
+      <c r="B260" t="s" s="4">
         <v>75</v>
       </c>
-      <c r="C257" t="s" s="4">
+      <c r="C260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D257" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E257" t="s" s="4">
+      <c r="D260" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F257" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s" s="9">
+      <c r="F260" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B258" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C258" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D258" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E258" t="s" s="9">
+      <c r="B261" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C261" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E261" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F258" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s" s="8">
+      <c r="F261" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B259" t="s" s="8">
+      <c r="B262" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C259" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D259" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E259" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F259" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s" s="5">
+      <c r="C262" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D262" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E262" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F262" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B260" t="s" s="5">
+      <c r="B263" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C260" t="s" s="5">
+      <c r="C263" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D260" t="s" s="5">
+      <c r="D263" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E260" t="s" s="5">
+      <c r="E263" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F260" t="s" s="5">
+      <c r="F263" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B261" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C261" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D261" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E261" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F261" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B262" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C262" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D262" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E262" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F262" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B263" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C263" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D263" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E263" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F263" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B264" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C264" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D264" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E264" t="s" s="6">
         <v>2</v>
@@ -5179,16 +5179,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B265" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C265" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D265" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E265" t="s" s="6">
         <v>2</v>
@@ -5199,16 +5199,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B266" t="s" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C266" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D266" t="s" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E266" t="s" s="6">
         <v>2</v>
@@ -5219,16 +5219,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B267" t="s" s="7">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C267" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D267" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E267" t="s" s="6">
         <v>2</v>
@@ -5239,16 +5239,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n" s="10">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B268" t="s" s="7">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C268" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D268" t="s" s="7">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E268" t="s" s="6">
         <v>2</v>
@@ -5259,16 +5259,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n" s="10">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B269" t="s" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C269" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D269" t="s" s="7">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E269" t="s" s="6">
         <v>2</v>
@@ -5279,16 +5279,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n" s="10">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B270" t="s" s="7">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C270" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D270" t="s" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E270" t="s" s="6">
         <v>2</v>
@@ -5299,16 +5299,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n" s="10">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="B271" t="s" s="7">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C271" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D271" t="s" s="7">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E271" t="s" s="6">
         <v>2</v>
@@ -5319,198 +5319,198 @@
     </row>
     <row r="272">
       <c r="A272" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B272" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C272" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E272" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F272" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B273" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C273" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E273" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F273" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B274" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C274" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D274" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E274" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F274" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B272" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C272" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D272" t="s" s="7">
+      <c r="B275" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E272" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F272" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s" s="8">
+      <c r="C275" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B273" t="s" s="8">
+      <c r="E275" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F275" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C273" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D273" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E273" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F273" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276">
-      <c r="A276" t="s" s="4">
+      <c r="B276" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C276" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E276" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F276" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279">
+      <c r="A279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B276" t="s" s="4">
+      <c r="B279" t="s" s="4">
         <v>76</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D276" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E276" t="s" s="4">
+      <c r="D279" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F276" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s" s="9">
+      <c r="F279" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B277" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C277" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D277" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E277" t="s" s="9">
+      <c r="B280" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C280" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E280" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F277" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s" s="8">
+      <c r="F280" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B278" t="s" s="8">
+      <c r="B281" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C278" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D278" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E278" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F278" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s" s="5">
+      <c r="C281" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E281" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F281" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B279" t="s" s="5">
+      <c r="B282" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C279" t="s" s="5">
+      <c r="C282" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D279" t="s" s="5">
+      <c r="D282" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E279" t="s" s="5">
+      <c r="E282" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F279" t="s" s="5">
+      <c r="F282" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B280" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C280" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D280" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E280" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F280" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B281" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C281" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D281" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E281" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F281" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B282" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C282" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D282" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E282" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F282" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B283" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C283" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D283" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E283" t="s" s="6">
         <v>2</v>
@@ -5521,16 +5521,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B284" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C284" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D284" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E284" t="s" s="6">
         <v>2</v>
@@ -5541,16 +5541,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B285" t="s" s="7">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C285" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D285" t="s" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E285" t="s" s="6">
         <v>2</v>
@@ -5561,16 +5561,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B286" t="s" s="7">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C286" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D286" t="s" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E286" t="s" s="6">
         <v>2</v>
@@ -5581,198 +5581,198 @@
     </row>
     <row r="287">
       <c r="A287" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B287" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C287" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E287" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F287" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B288" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C288" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D288" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E288" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F288" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B289" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C289" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D289" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E289" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F289" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n" s="10">
         <v>8.0</v>
       </c>
-      <c r="B287" t="s" s="7">
+      <c r="B290" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C287" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D287" t="s" s="7">
+      <c r="C290" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="E287" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F287" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290">
-      <c r="A290" t="s" s="4">
+      <c r="E290" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F290" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B291" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C291" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E291" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294">
+      <c r="A294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B290" t="s" s="4">
+      <c r="B294" t="s" s="4">
         <v>78</v>
       </c>
-      <c r="C290" t="s" s="4">
+      <c r="C294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D290" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E290" t="s" s="4">
+      <c r="D294" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F290" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s" s="9">
+      <c r="F294" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B291" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C291" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D291" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E291" t="s" s="9">
+      <c r="B295" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C295" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E295" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F291" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s" s="8">
+      <c r="F295" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B292" t="s" s="8">
+      <c r="B296" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C292" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D292" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E292" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F292" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s" s="5">
+      <c r="C296" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E296" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F296" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B293" t="s" s="5">
+      <c r="B297" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C293" t="s" s="5">
+      <c r="C297" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D293" t="s" s="5">
+      <c r="D297" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E293" t="s" s="5">
+      <c r="E297" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F293" t="s" s="5">
+      <c r="F297" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B294" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C294" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D294" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E294" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F294" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B295" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C295" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D295" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E295" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F295" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B296" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C296" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D296" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E296" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F296" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B297" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C297" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D297" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E297" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F297" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B298" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C298" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D298" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E298" t="s" s="6">
         <v>2</v>
@@ -5783,16 +5783,16 @@
     </row>
     <row r="299">
       <c r="A299" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B299" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C299" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D299" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E299" t="s" s="6">
         <v>2</v>
@@ -5803,16 +5803,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B300" t="s" s="7">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C300" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D300" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E300" t="s" s="6">
         <v>2</v>
@@ -5823,16 +5823,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B301" t="s" s="7">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C301" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D301" t="s" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E301" t="s" s="6">
         <v>2</v>
@@ -5843,16 +5843,16 @@
     </row>
     <row r="302">
       <c r="A302" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B302" t="s" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C302" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D302" t="s" s="7">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E302" t="s" s="6">
         <v>2</v>
@@ -5863,16 +5863,16 @@
     </row>
     <row r="303">
       <c r="A303" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B303" t="s" s="7">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C303" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D303" t="s" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E303" t="s" s="6">
         <v>2</v>
@@ -5883,16 +5883,16 @@
     </row>
     <row r="304">
       <c r="A304" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B304" t="s" s="7">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C304" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D304" t="s" s="7">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E304" t="s" s="6">
         <v>2</v>
@@ -5903,218 +5903,218 @@
     </row>
     <row r="305">
       <c r="A305" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B305" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C305" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D305" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="E305" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F305" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B306" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C306" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E306" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F306" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B307" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C307" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E307" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F307" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B308" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C308" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D308" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E308" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F308" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B305" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C305" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D305" t="s" s="7">
+      <c r="B309" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E305" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F305" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s" s="8">
+      <c r="C309" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D309" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B306" t="s" s="8">
+      <c r="E309" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F309" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C306" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D306" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E306" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F306" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309">
-      <c r="A309" t="s" s="4">
+      <c r="B310" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C310" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E310" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F310" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313">
+      <c r="A313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B309" t="s" s="4">
+      <c r="B313" t="s" s="4">
         <v>79</v>
       </c>
-      <c r="C309" t="s" s="4">
+      <c r="C313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D309" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E309" t="s" s="4">
+      <c r="D313" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F309" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s" s="9">
+      <c r="F313" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B310" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C310" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D310" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E310" t="s" s="9">
+      <c r="B314" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C314" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E314" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F310" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s" s="8">
+      <c r="F314" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B311" t="s" s="8">
+      <c r="B315" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C311" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D311" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E311" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F311" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s" s="5">
+      <c r="C315" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E315" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F315" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B312" t="s" s="5">
+      <c r="B316" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C312" t="s" s="5">
+      <c r="C316" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D312" t="s" s="5">
+      <c r="D316" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E312" t="s" s="5">
+      <c r="E316" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F312" t="s" s="5">
+      <c r="F316" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B313" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C313" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D313" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E313" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F313" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B314" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C314" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D314" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E314" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F314" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B315" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C315" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D315" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E315" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F315" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B316" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C316" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D316" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E316" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F316" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B317" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C317" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D317" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E317" t="s" s="6">
         <v>2</v>
@@ -6125,16 +6125,16 @@
     </row>
     <row r="318">
       <c r="A318" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B318" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C318" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D318" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E318" t="s" s="6">
         <v>2</v>
@@ -6145,16 +6145,16 @@
     </row>
     <row r="319">
       <c r="A319" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B319" t="s" s="7">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C319" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D319" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E319" t="s" s="6">
         <v>2</v>
@@ -6165,16 +6165,16 @@
     </row>
     <row r="320">
       <c r="A320" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B320" t="s" s="7">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C320" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D320" t="s" s="7">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E320" t="s" s="6">
         <v>2</v>
@@ -6185,16 +6185,16 @@
     </row>
     <row r="321">
       <c r="A321" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B321" t="s" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C321" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D321" t="s" s="7">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E321" t="s" s="6">
         <v>2</v>
@@ -6205,16 +6205,16 @@
     </row>
     <row r="322">
       <c r="A322" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B322" t="s" s="7">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C322" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D322" t="s" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E322" t="s" s="6">
         <v>2</v>
@@ -6225,16 +6225,16 @@
     </row>
     <row r="323">
       <c r="A323" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B323" t="s" s="7">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C323" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D323" t="s" s="7">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E323" t="s" s="6">
         <v>2</v>
@@ -6245,218 +6245,218 @@
     </row>
     <row r="324">
       <c r="A324" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B324" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C324" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D324" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="E324" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F324" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B325" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C325" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D325" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E325" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F325" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B326" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C326" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D326" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E326" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F326" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B327" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C327" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D327" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E327" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F327" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B324" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C324" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D324" t="s" s="7">
+      <c r="B328" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E324" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F324" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s" s="8">
+      <c r="C328" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D328" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B325" t="s" s="8">
+      <c r="E328" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F328" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C325" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D325" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E325" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F325" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328">
-      <c r="A328" t="s" s="4">
+      <c r="B329" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C329" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D329" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E329" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F329" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332">
+      <c r="A332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B328" t="s" s="4">
+      <c r="B332" t="s" s="4">
         <v>80</v>
       </c>
-      <c r="C328" t="s" s="4">
+      <c r="C332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D328" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E328" t="s" s="4">
+      <c r="D332" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F328" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s" s="9">
+      <c r="F332" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B329" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C329" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D329" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E329" t="s" s="9">
+      <c r="B333" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C333" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E333" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F329" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s" s="8">
+      <c r="F333" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B330" t="s" s="8">
+      <c r="B334" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C330" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D330" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E330" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F330" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s" s="5">
+      <c r="C334" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D334" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E334" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F334" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B331" t="s" s="5">
+      <c r="B335" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C331" t="s" s="5">
+      <c r="C335" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D331" t="s" s="5">
+      <c r="D335" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E331" t="s" s="5">
+      <c r="E335" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F331" t="s" s="5">
+      <c r="F335" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B332" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C332" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D332" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E332" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F332" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B333" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C333" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D333" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E333" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F333" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B334" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C334" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D334" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E334" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F334" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B335" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C335" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D335" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E335" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F335" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B336" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C336" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D336" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E336" t="s" s="6">
         <v>2</v>
@@ -6467,16 +6467,16 @@
     </row>
     <row r="337">
       <c r="A337" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B337" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C337" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D337" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E337" t="s" s="6">
         <v>2</v>
@@ -6487,16 +6487,16 @@
     </row>
     <row r="338">
       <c r="A338" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B338" t="s" s="7">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C338" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D338" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E338" t="s" s="6">
         <v>2</v>
@@ -6507,16 +6507,16 @@
     </row>
     <row r="339">
       <c r="A339" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B339" t="s" s="7">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C339" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D339" t="s" s="7">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E339" t="s" s="6">
         <v>2</v>
@@ -6527,16 +6527,16 @@
     </row>
     <row r="340">
       <c r="A340" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B340" t="s" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C340" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D340" t="s" s="7">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E340" t="s" s="6">
         <v>2</v>
@@ -6547,16 +6547,16 @@
     </row>
     <row r="341">
       <c r="A341" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B341" t="s" s="7">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C341" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D341" t="s" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E341" t="s" s="6">
         <v>2</v>
@@ -6567,16 +6567,16 @@
     </row>
     <row r="342">
       <c r="A342" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B342" t="s" s="7">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C342" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D342" t="s" s="7">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E342" t="s" s="6">
         <v>2</v>
@@ -6587,218 +6587,218 @@
     </row>
     <row r="343">
       <c r="A343" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B343" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="C343" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D343" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="E343" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F343" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B344" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C344" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D344" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E344" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F344" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B345" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C345" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E345" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F345" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B346" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C346" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E346" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F346" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B343" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C343" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D343" t="s" s="7">
+      <c r="B347" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E343" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F343" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s" s="8">
+      <c r="C347" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B344" t="s" s="8">
+      <c r="E347" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F347" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C344" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D344" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E344" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F344" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347">
-      <c r="A347" t="s" s="4">
+      <c r="B348" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C348" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D348" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E348" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F348" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351">
+      <c r="A351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B347" t="s" s="4">
+      <c r="B351" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="C347" t="s" s="4">
+      <c r="C351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D347" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E347" t="s" s="4">
+      <c r="D351" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F347" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s" s="9">
+      <c r="F351" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B348" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C348" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D348" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E348" t="s" s="9">
+      <c r="B352" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C352" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D352" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E352" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F348" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s" s="8">
+      <c r="F352" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B349" t="s" s="8">
+      <c r="B353" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C349" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D349" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E349" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F349" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s" s="5">
+      <c r="C353" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D353" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E353" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F353" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B350" t="s" s="5">
+      <c r="B354" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C350" t="s" s="5">
+      <c r="C354" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D350" t="s" s="5">
+      <c r="D354" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E350" t="s" s="5">
+      <c r="E354" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F350" t="s" s="5">
+      <c r="F354" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B351" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C351" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D351" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E351" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F351" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B352" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C352" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D352" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E352" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F352" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B353" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C353" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D353" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E353" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F353" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B354" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C354" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D354" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E354" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F354" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n" s="10">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B355" t="s" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C355" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D355" t="s" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E355" t="s" s="6">
         <v>2</v>
@@ -6809,16 +6809,16 @@
     </row>
     <row r="356">
       <c r="A356" t="n" s="10">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B356" t="s" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C356" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D356" t="s" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E356" t="s" s="6">
         <v>2</v>
@@ -6829,16 +6829,16 @@
     </row>
     <row r="357">
       <c r="A357" t="n" s="10">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B357" t="s" s="7">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C357" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D357" t="s" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E357" t="s" s="6">
         <v>2</v>
@@ -6849,16 +6849,16 @@
     </row>
     <row r="358">
       <c r="A358" t="n" s="10">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B358" t="s" s="7">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C358" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D358" t="s" s="7">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E358" t="s" s="6">
         <v>2</v>
@@ -6869,16 +6869,16 @@
     </row>
     <row r="359">
       <c r="A359" t="n" s="10">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B359" t="s" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C359" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D359" t="s" s="7">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E359" t="s" s="6">
         <v>2</v>
@@ -6889,16 +6889,16 @@
     </row>
     <row r="360">
       <c r="A360" t="n" s="10">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="B360" t="s" s="7">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C360" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D360" t="s" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E360" t="s" s="6">
         <v>2</v>
@@ -6909,16 +6909,16 @@
     </row>
     <row r="361">
       <c r="A361" t="n" s="10">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B361" t="s" s="7">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C361" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D361" t="s" s="7">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E361" t="s" s="6">
         <v>2</v>
@@ -6929,41 +6929,121 @@
     </row>
     <row r="362">
       <c r="A362" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B362" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="C362" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D362" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E362" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F362" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B363" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C363" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D363" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="E363" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F363" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B364" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C364" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D364" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="E364" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F364" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B365" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C365" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="E365" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F365" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n" s="10">
         <v>12.0</v>
       </c>
-      <c r="B362" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="C362" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D362" t="s" s="7">
+      <c r="B366" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="E362" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F362" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s" s="8">
+      <c r="C366" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D366" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="B363" t="s" s="8">
+      <c r="E366" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F366" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="8">
         <v>54</v>
       </c>
-      <c r="C363" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D363" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E363" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F363" t="s" s="8">
+      <c r="B367" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="C367" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D367" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E367" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F367" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -6972,60 +7052,60 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B277:D277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B291:D291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B310:D310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B348:D348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B261:D261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B295:D295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B314:D314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B367:F367"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
